--- a/code/validation_data.xlsx
+++ b/code/validation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,11 +606,15 @@
           <t>Not Valid</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>222</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -641,56 +645,6 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>image12.jpg</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Not Valid</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
